--- a/Attributes.xlsx
+++ b/Attributes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA_SE347\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D8E4B9-C14B-4A17-83AA-7E93E8905FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBDD74B-039C-4631-A643-0EB737EF51DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7D799DAB-437C-4ADD-916C-E645F43DA035}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Tác giả</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Độ tuổi</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>slug</t>
   </si>
 </sst>
 </file>
@@ -467,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB24B05-6B63-4E2B-98B3-3FB493607DDF}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -478,103 +484,111 @@
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
